--- a/haunting_mars/morphs.xlsx
+++ b/haunting_mars/morphs.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10916"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dare/Documents/personal/rpg/posthuman/haunting_mars/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{685A1D61-5DA4-444B-9599-444474736B26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3E86FAF-487F-2E4E-AEE9-D01512B65A31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5960" yWindow="4060" windowWidth="27640" windowHeight="16940" xr2:uid="{E1551399-002C-3A45-BFB5-13195D71B5AC}"/>
+    <workbookView xWindow="12360" yWindow="1020" windowWidth="27640" windowHeight="16940" xr2:uid="{E1551399-002C-3A45-BFB5-13195D71B5AC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="38">
   <si>
     <t>Splicer</t>
   </si>
@@ -56,9 +56,6 @@
     <t>Pod</t>
   </si>
   <si>
-    <t>Neotenic</t>
-  </si>
-  <si>
     <t>ST</t>
   </si>
   <si>
@@ -77,9 +74,6 @@
     <t>HT</t>
   </si>
   <si>
-    <t>Synth (RR C Flexi-Skin)</t>
-  </si>
-  <si>
     <t>DR 3, Mesh Inserts, Cyberbrain, Mnemonic Augmentation, Cortical Stack, Access Jacks, Chummy</t>
   </si>
   <si>
@@ -93,13 +87,76 @@
   </si>
   <si>
     <t>Basic Biomods, Mesh Insertss, Cortical Stack</t>
+  </si>
+  <si>
+    <t>FJ Heunggong</t>
+  </si>
+  <si>
+    <t>DR 2, Mesh Inserts, Cyberbrain, Mnemonic Augmentation, Cortical Stack, Access Jacks, Anosmia, -5 to touch</t>
+  </si>
+  <si>
+    <t>Exalt</t>
+  </si>
+  <si>
+    <t>DR 1, Pain Threshold +2, Attractive</t>
+  </si>
+  <si>
+    <t>Unattractive</t>
+  </si>
+  <si>
+    <t>DR 3, Mesh Inserts, Cyberbrain, Mnemonic Augmentation, Cortical Stack, Access Jacks, Anosmia</t>
+  </si>
+  <si>
+    <t>SYNTH: Ocon Acolyte</t>
+  </si>
+  <si>
+    <t>SYNTH: Tetsuo Smile</t>
+  </si>
+  <si>
+    <t>DR 1, Mesh Inserts, Cyberbrain, Mnemonic Augmentation, Cortical Stack, Access Jacks, Anosmia, Uncanny Appearance (-2 to most)</t>
+  </si>
+  <si>
+    <t>SYNTH: Fujizo Biwa</t>
+  </si>
+  <si>
+    <t>DR 3, Mesh Inserts, Cyberbrain, Mnemonic Augmentation, Cortical Stack, Access Jacks</t>
+  </si>
+  <si>
+    <t>Pleasure Pod</t>
+  </si>
+  <si>
+    <t>Basic Biomods, Basic Mesh Inserts, Clean Metabolism, Cortical Stack, Cyberprain, Enhanced Pheromones, Mnemonic Augmentation, Puppet Sock, Sex Switch</t>
+  </si>
+  <si>
+    <t>SYNTH (RR C FLEXI-SKIN)</t>
+  </si>
+  <si>
+    <t>CASE: Millen-Campbell</t>
+  </si>
+  <si>
+    <t>SYNTH (Tetsuo Point Man)</t>
+  </si>
+  <si>
+    <t>DR 4, Mesh Inserts, Cyberbrain, Mnemonic Augmentation, Cortical Stack, Fearlessness +2</t>
+  </si>
+  <si>
+    <t>Security Pod</t>
+  </si>
+  <si>
+    <t>High Pain Threshold, Armor: DR 2, Social Stigma: Pod, Basic Biomods, Mesh Inserts, Cortical Stack, Cyberbrain, Puppet Sock, Mnemonic Augmentation, T-Ray Emitter, Adrenal Boost</t>
+  </si>
+  <si>
+    <t>RR TNF Hexapod</t>
+  </si>
+  <si>
+    <t>DR 1, Cortical Stack, Mesh Inserts, Puppet Sock, Microscopic Vision, Spectral Vision, Double-Jointed, Single-Minded, Mathematical Ability+2, Absolute Direction, Skillware (Electronics-10 [several])</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -110,6 +167,12 @@
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
@@ -134,12 +197,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -158,9 +228,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -198,7 +268,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -304,7 +374,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -446,7 +516,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -454,32 +524,32 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8112185A-B507-BB42-99F6-92670E13AAAC}">
-  <dimension ref="A1:Q23"/>
+  <dimension ref="A1:Q51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+    <sheetView tabSelected="1" topLeftCell="A24" zoomScale="101" workbookViewId="0">
+      <selection activeCell="E56" sqref="E56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" t="s">
         <v>7</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>8</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>9</v>
       </c>
-      <c r="F1" t="s">
-        <v>10</v>
-      </c>
       <c r="G1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
@@ -505,7 +575,7 @@
         <v>12</v>
       </c>
       <c r="J4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
@@ -562,10 +632,10 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="C13">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="D13">
         <v>12</v>
@@ -580,7 +650,10 @@
         <v>12</v>
       </c>
       <c r="H13">
-        <v>11</v>
+        <v>13</v>
+      </c>
+      <c r="J13" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
@@ -605,43 +678,46 @@
       <c r="H16">
         <v>11</v>
       </c>
+      <c r="J16" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="C19">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D19">
         <v>10</v>
       </c>
       <c r="E19">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F19">
         <v>10</v>
       </c>
       <c r="G19">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H19">
-        <v>11</v>
-      </c>
-      <c r="J19" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="K19" s="1"/>
-      <c r="L19" s="1"/>
-      <c r="M19" s="1"/>
-      <c r="N19" s="1"/>
-      <c r="O19" s="1"/>
-      <c r="P19" s="1"/>
-      <c r="Q19" s="1"/>
+        <v>12</v>
+      </c>
+      <c r="J19" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="K19" s="3"/>
+      <c r="L19" s="3"/>
+      <c r="M19" s="3"/>
+      <c r="N19" s="3"/>
+      <c r="O19" s="3"/>
+      <c r="P19" s="3"/>
+      <c r="Q19" s="3"/>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C22">
         <v>10</v>
@@ -661,26 +737,287 @@
       <c r="H22">
         <v>11</v>
       </c>
-      <c r="J22" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="K22" s="2"/>
-      <c r="L22" s="2"/>
-      <c r="M22" s="2"/>
-      <c r="N22" s="2"/>
-      <c r="O22" s="2"/>
-      <c r="P22" s="2"/>
-      <c r="Q22" s="2"/>
+      <c r="J22" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K22" s="4"/>
+      <c r="L22" s="4"/>
+      <c r="M22" s="4"/>
+      <c r="N22" s="4"/>
+      <c r="O22" s="4"/>
+      <c r="P22" s="4"/>
+      <c r="Q22" s="4"/>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
         <v>17</v>
       </c>
+      <c r="C25">
+        <v>9</v>
+      </c>
+      <c r="D25">
+        <v>10</v>
+      </c>
+      <c r="E25">
+        <v>10</v>
+      </c>
+      <c r="F25">
+        <v>10</v>
+      </c>
+      <c r="G25">
+        <v>9</v>
+      </c>
+      <c r="H25">
+        <v>10</v>
+      </c>
+      <c r="J25" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="K25" s="3"/>
+      <c r="L25" s="3"/>
+      <c r="M25" s="3"/>
+      <c r="N25" s="3"/>
+      <c r="O25" s="3"/>
+      <c r="P25" s="3"/>
+      <c r="Q25" s="3"/>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>23</v>
+      </c>
+      <c r="C28">
+        <v>10</v>
+      </c>
+      <c r="D28">
+        <v>10</v>
+      </c>
+      <c r="E28">
+        <v>10</v>
+      </c>
+      <c r="F28">
+        <v>10</v>
+      </c>
+      <c r="G28">
+        <v>10</v>
+      </c>
+      <c r="H28">
+        <v>11</v>
+      </c>
+      <c r="J28" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>24</v>
+      </c>
+      <c r="C31">
+        <v>9</v>
+      </c>
+      <c r="D31">
+        <v>10</v>
+      </c>
+      <c r="E31">
+        <v>10</v>
+      </c>
+      <c r="F31">
+        <v>10</v>
+      </c>
+      <c r="G31">
+        <v>10</v>
+      </c>
+      <c r="H31">
+        <v>11</v>
+      </c>
+      <c r="J31" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34">
+        <v>12</v>
+      </c>
+      <c r="D34">
+        <v>11</v>
+      </c>
+      <c r="E34">
+        <v>11</v>
+      </c>
+      <c r="F34">
+        <v>11</v>
+      </c>
+      <c r="G34">
+        <v>10</v>
+      </c>
+      <c r="H34">
+        <v>11</v>
+      </c>
+      <c r="J34" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>31</v>
+      </c>
+      <c r="C37">
+        <v>9</v>
+      </c>
+      <c r="D37">
+        <v>10</v>
+      </c>
+      <c r="E37">
+        <v>10</v>
+      </c>
+      <c r="F37">
+        <v>10</v>
+      </c>
+      <c r="G37">
+        <v>9</v>
+      </c>
+      <c r="H37">
+        <v>10</v>
+      </c>
+      <c r="J37" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="K37" s="3"/>
+      <c r="L37" s="3"/>
+      <c r="M37" s="3"/>
+      <c r="N37" s="3"/>
+      <c r="O37" s="3"/>
+      <c r="P37" s="3"/>
+      <c r="Q37" s="3"/>
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A40" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C40">
+        <v>12</v>
+      </c>
+      <c r="D40">
+        <v>10</v>
+      </c>
+      <c r="E40">
+        <v>11</v>
+      </c>
+      <c r="F40">
+        <v>10</v>
+      </c>
+      <c r="G40">
+        <v>10</v>
+      </c>
+      <c r="H40">
+        <v>11</v>
+      </c>
+      <c r="J40" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A43" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C43">
+        <v>12</v>
+      </c>
+      <c r="D43">
+        <v>11</v>
+      </c>
+      <c r="E43">
+        <v>10</v>
+      </c>
+      <c r="F43">
+        <v>10</v>
+      </c>
+      <c r="G43">
+        <v>11</v>
+      </c>
+      <c r="H43">
+        <v>11</v>
+      </c>
+      <c r="J43" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="K43" s="5"/>
+      <c r="L43" s="5"/>
+      <c r="M43" s="5"/>
+      <c r="N43" s="5"/>
+      <c r="O43" s="5"/>
+      <c r="P43" s="5"/>
+      <c r="Q43" s="5"/>
+    </row>
+    <row r="46" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>34</v>
+      </c>
+      <c r="C46">
+        <v>14</v>
+      </c>
+      <c r="D46" s="2">
+        <v>11</v>
+      </c>
+      <c r="E46">
+        <v>10</v>
+      </c>
+      <c r="F46">
+        <v>10</v>
+      </c>
+      <c r="G46">
+        <v>10</v>
+      </c>
+      <c r="H46">
+        <v>13</v>
+      </c>
+      <c r="J46" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>36</v>
+      </c>
+      <c r="C50">
+        <v>6</v>
+      </c>
+      <c r="D50">
+        <v>12</v>
+      </c>
+      <c r="E50">
+        <v>7</v>
+      </c>
+      <c r="F50">
+        <v>9</v>
+      </c>
+      <c r="G50">
+        <v>9</v>
+      </c>
+      <c r="H50">
+        <v>9</v>
+      </c>
+      <c r="J50" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J51" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="5">
     <mergeCell ref="J19:Q19"/>
     <mergeCell ref="J22:Q22"/>
+    <mergeCell ref="J25:Q25"/>
+    <mergeCell ref="J37:Q37"/>
+    <mergeCell ref="J43:Q43"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
